--- a/TDDProject/lib/ConfuigurationFile.xlsx
+++ b/TDDProject/lib/ConfuigurationFile.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosmols\Documents\rosmolsProject\TDDProject\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A871B85-5B66-4396-A1B5-DFD56A173F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA363009-17D8-400B-AB65-5F1582178CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="601" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData_DE" sheetId="8" r:id="rId1"/>
     <sheet name="TestData_EN" sheetId="3" r:id="rId2"/>
     <sheet name="SmokeTest" sheetId="7" r:id="rId3"/>
-    <sheet name="RequestAccessTC" sheetId="19" r:id="rId4"/>
-    <sheet name="ManageRoles_EN" sheetId="13" r:id="rId5"/>
-    <sheet name="ManageDatabase_EN" sheetId="16" r:id="rId6"/>
-    <sheet name="RegressionTest" sheetId="9" r:id="rId7"/>
-    <sheet name="Regression_TestData" sheetId="14" r:id="rId8"/>
-    <sheet name="ManageCostcenter_EN" sheetId="11" r:id="rId9"/>
-    <sheet name="ManageUsers_EN" sheetId="12" r:id="rId10"/>
-    <sheet name="MapRoles_EN" sheetId="17" r:id="rId11"/>
-    <sheet name="ProdWebRequestAccss_EN" sheetId="18" r:id="rId12"/>
+    <sheet name="ManageRoles_EN" sheetId="13" r:id="rId4"/>
+    <sheet name="ManageDatabase_EN" sheetId="16" r:id="rId5"/>
+    <sheet name="RegressionTest" sheetId="9" r:id="rId6"/>
+    <sheet name="Regression_TestData" sheetId="14" r:id="rId7"/>
+    <sheet name="ManageCostcenter_EN" sheetId="11" r:id="rId8"/>
+    <sheet name="ManageUsers_EN" sheetId="12" r:id="rId9"/>
+    <sheet name="MapRoles_EN" sheetId="17" r:id="rId10"/>
+    <sheet name="ProdWebRequestAccss_EN" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SmokeTest!$C$1:$C$2</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="194">
   <si>
     <t>Carline</t>
   </si>
@@ -226,9 +225,6 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>TestCase004_ValidateManageCostCenterScreen</t>
-  </si>
-  <si>
     <t>Test Description</t>
   </si>
   <si>
@@ -238,99 +234,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>MISHIVA</t>
-  </si>
-  <si>
-    <t>TestCase007_ValidateMandatoryFields</t>
-  </si>
-  <si>
-    <t>TestCC</t>
-  </si>
-  <si>
-    <t>TestCase009_ValidateDirtyCheck</t>
-  </si>
-  <si>
-    <t>GIC383939</t>
-  </si>
-  <si>
-    <t>MOIT</t>
-  </si>
-  <si>
-    <t>ITGIC</t>
-  </si>
-  <si>
-    <t>Manufacturing and Operations</t>
-  </si>
-  <si>
-    <t>TestCase010_ValidateDirtyCheckFieldColorValidation</t>
-  </si>
-  <si>
-    <t>EPIP</t>
-  </si>
-  <si>
-    <t>ITGIM</t>
-  </si>
-  <si>
-    <t>HR AND OPERATIONS</t>
-  </si>
-  <si>
-    <t>TestCase011_ValidateDirtyCheckOnClickOfReset</t>
-  </si>
-  <si>
-    <t>TestCase012_ValidateDirtyCheckOnClickOfReset</t>
-  </si>
-  <si>
-    <t>TestCase013_ValidateDeleteFromAddEditScreen</t>
-  </si>
-  <si>
-    <t>FKSDK39939</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>TestCase014_OnClickOfNoButtonAfterDeleteOperation</t>
-  </si>
-  <si>
-    <t>GJDK38939</t>
-  </si>
-  <si>
-    <t>ITCRD</t>
-  </si>
-  <si>
-    <t>Engineering Operations</t>
-  </si>
-  <si>
-    <t>TestCase015_ValidateCostcenterTextFieldValidation</t>
-  </si>
-  <si>
-    <t>TestCase016_SaveAndLoadCostCenter</t>
-  </si>
-  <si>
-    <t>Vans and Buses</t>
-  </si>
-  <si>
-    <t>TESTCOSTCENTER</t>
-  </si>
-  <si>
-    <t>TESTSUBDEPT</t>
-  </si>
-  <si>
-    <t>TESTDEPARTMENT</t>
-  </si>
-  <si>
-    <t>TESTLOAD;SCREM;BOLT;STATIONS</t>
-  </si>
-  <si>
-    <t>LOADITC;MANUFACTURING;PRODCUTION;Injectors</t>
-  </si>
-  <si>
-    <t>LIT/GI;LOGISTICS;SHIPPMENT;REWORK</t>
-  </si>
-  <si>
-    <t>967;1000;1002;1004</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -346,64 +249,16 @@
     <t>ModifyUser</t>
   </si>
   <si>
-    <t>Pramod</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Kulkarni</t>
-  </si>
-  <si>
-    <t>ITP/IE</t>
-  </si>
-  <si>
-    <t>pramodkulkarni@daimler.com</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>TestCase009_ValidateUsersInfo</t>
-  </si>
-  <si>
-    <t>PRAMKUL</t>
-  </si>
-  <si>
     <t>RoleName</t>
   </si>
   <si>
     <t>TestCase002_AddRoleName</t>
   </si>
   <si>
-    <t>TestCase003_AddRoleNameWithDescritpion</t>
-  </si>
-  <si>
-    <t>PLARECALL</t>
-  </si>
-  <si>
-    <t>TestCase005_ValidateDeleteRoleName</t>
-  </si>
-  <si>
     <t>AlertText</t>
   </si>
   <si>
-    <t>TestCase007_ValidateDirtyCheck</t>
-  </si>
-  <si>
-    <t>TestCase011_ValidateCheckedDB</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>TESTCHECKEDDB</t>
-  </si>
-  <si>
-    <t>TESTDEPARTMENT3939</t>
   </si>
   <si>
     <t>TestCase001_ValidateDatabaseCostCenterMapping</t>
@@ -440,27 +295,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>PLA/ADMIN</t>
-  </si>
-  <si>
-    <t>PLA/USER</t>
-  </si>
-  <si>
-    <t>PLACHRONOLOGYADMIN</t>
-  </si>
-  <si>
-    <t>PLA USER RIGHTS</t>
-  </si>
-  <si>
-    <t>ADMIN RIGHTS</t>
-  </si>
-  <si>
-    <t>RECALL RIGHTS</t>
-  </si>
-  <si>
-    <t>CHRONOLOGY ADMIN RIGHTS</t>
-  </si>
-  <si>
     <t>TestCase002_AddDatabases</t>
   </si>
   <si>
@@ -497,9 +331,6 @@
     <t>PLA/Adminstrator;PLA/User;PLA/Recall;PLAADMIN</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -515,36 +346,12 @@
     <t>it</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>TestCase2_ValidateAddManageCostCenterAndEditRow2</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenCC</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenDesc</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenSubDept</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenDept</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenPlant</t>
-  </si>
-  <si>
     <t>AssignedCostCenters</t>
   </si>
   <si>
@@ -605,18 +412,6 @@
     <t>TestCase10_ValidateFilterOptionInAddEditDatabasesScreenPlant</t>
   </si>
   <si>
-    <t>TestCase6_ValidateFilterOptionOfMappedDatabasesInAddEditCostcenterScreenForDB</t>
-  </si>
-  <si>
-    <t>TestCase6_ValidateFilterOptionOfMappedDatabasesInAddEditCostcenterScreenForDesc</t>
-  </si>
-  <si>
-    <t>TestCase11_ValidateDeleteOptionOfManageCostCenterScreen</t>
-  </si>
-  <si>
-    <t>TestCase12_ValidateDeleteOptionOfAddEditCostCenterScreen</t>
-  </si>
-  <si>
     <t>TestCase13_ValidateDeleteOptionOfManageDatabaseScreen</t>
   </si>
   <si>
@@ -638,12 +433,6 @@
     <t>#6b00f3</t>
   </si>
   <si>
-    <t>TestCase21_ValidateLoadBySearchingValuesOnSearchCostcenterScreen</t>
-  </si>
-  <si>
-    <t>TestCase22_ValidateLoadAfterSearchingCostcenterInAddEditCostcenterScreen</t>
-  </si>
-  <si>
     <t>TestCase23_ValidateLoadBySearchingValuesOnSearchDatabaseScreen</t>
   </si>
   <si>
@@ -656,54 +445,21 @@
     <t>ZA2</t>
   </si>
   <si>
-    <t>PT/STF</t>
-  </si>
-  <si>
-    <t>1.Enter plant field empty and click on save button on costcenter screen</t>
-  </si>
-  <si>
     <t>Steps To Understand</t>
   </si>
   <si>
-    <t>TestCase2_ValidateAddManageCostCenterAndEdit</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
     <t>TC would fail if no DB is not created</t>
   </si>
   <si>
-    <t>TC will fail if CC not present</t>
-  </si>
-  <si>
-    <t>67676</t>
-  </si>
-  <si>
-    <t>TestCase15_ValidateFlow1</t>
-  </si>
-  <si>
-    <t>TESTDEPT</t>
-  </si>
-  <si>
-    <t>TEST101</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>TestCase26_ValidateDBAndModuleSelectionInPLAWebHomePage</t>
-  </si>
-  <si>
     <t>DatabaseToBeSelected</t>
   </si>
   <si>
@@ -716,30 +472,9 @@
     <t>Entwicklungsdatenbank Berlin / Development DB Berlin</t>
   </si>
   <si>
-    <t>TestCase15_ValidateEntireFlowForPLAAdmin</t>
-  </si>
-  <si>
     <t>Map Roles</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN; PLA-RECALL;PLA-REPORTING;PLA-USER; UM-ADMIN</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN;PLA-RECALL</t>
-  </si>
-  <si>
-    <t>PLA-RECALL;PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>PLA-REPORTING;UM-ADMIN</t>
-  </si>
-  <si>
-    <t>UM-ADMIN;PLA-ADMIN</t>
-  </si>
-  <si>
     <t>TestCase15a_ValidateEntireFlowForAll5Roles</t>
   </si>
   <si>
@@ -767,339 +502,42 @@
     <t>TestCase15i_ValidateEntireFlowForUMAdminPLAAdmin</t>
   </si>
   <si>
-    <t>12PT/STF</t>
-  </si>
-  <si>
-    <t>13PT/STF</t>
-  </si>
-  <si>
-    <t>14PT/STF</t>
-  </si>
-  <si>
-    <t>15PT/STF</t>
-  </si>
-  <si>
-    <t>11PT/STF</t>
-  </si>
-  <si>
-    <t>21PT/STF</t>
-  </si>
-  <si>
-    <t>22PT/STF</t>
-  </si>
-  <si>
-    <t>23PT/STF</t>
-  </si>
-  <si>
-    <t>24PT/STF</t>
-  </si>
-  <si>
-    <t>11ITGIC</t>
-  </si>
-  <si>
-    <t>12ITGIC</t>
-  </si>
-  <si>
-    <t>13ITGIC</t>
-  </si>
-  <si>
-    <t>14ITGIC</t>
-  </si>
-  <si>
-    <t>15ITGIC</t>
-  </si>
-  <si>
-    <t>21ITGIC</t>
-  </si>
-  <si>
-    <t>22ITGIC</t>
-  </si>
-  <si>
-    <t>23ITGIC</t>
-  </si>
-  <si>
-    <t>24ITGIC</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN</t>
-  </si>
-  <si>
-    <t>PLA-RECALL</t>
-  </si>
-  <si>
-    <t>PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>UM-ADMIN</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>TestCase1_ValidateErrorMessageOfSubDeptDeptPlantFieldWhenEmpty</t>
-  </si>
-  <si>
-    <t>1CCALL5Ro</t>
-  </si>
-  <si>
-    <t>2CCForPLA</t>
-  </si>
-  <si>
-    <t>3CCPLARcal</t>
-  </si>
-  <si>
-    <t>5CCForUMAd</t>
-  </si>
-  <si>
-    <t>6AdmPLRcl</t>
-  </si>
-  <si>
-    <t>8RepoUMAd</t>
-  </si>
-  <si>
-    <t>9UMPLAdmin</t>
-  </si>
-  <si>
-    <t>4CCPLARepo</t>
-  </si>
-  <si>
-    <t>7PReclRepo</t>
-  </si>
-  <si>
-    <t>Test auto combi for All 5 roles-automation test data</t>
-  </si>
-  <si>
-    <t>Test DescriptionTwo-automation test data</t>
-  </si>
-  <si>
-    <t>Test DescriptionTwoDummy9-automation test data</t>
-  </si>
-  <si>
-    <t>Test DescriptionTwoDummyALL-automation test data</t>
-  </si>
-  <si>
-    <t>desc test-automation test data</t>
-  </si>
-  <si>
-    <t>Testing-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for PLA Admin-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for PLA Recall-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for PLA Reporting-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for UM Admin-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for PLA Admin Recall-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for Recall Reporting-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for Reporting UM Admin-automation test data</t>
-  </si>
-  <si>
-    <t>Test auto combi for UM Admin PLA Admin-automation test data</t>
-  </si>
-  <si>
     <t>Dummy Db-automation test data</t>
   </si>
   <si>
-    <t>TestCase16_ValidateCountOfAssignedDatabasesAndAssignedRolesOnManageCostcentersScreen</t>
-  </si>
-  <si>
-    <t>TestCase26_ValidateUMWithPLAWebIntegration</t>
-  </si>
-  <si>
     <t>rosmols</t>
   </si>
   <si>
-    <t>TestCase27_ValidateUMWithPLAWebIntegrationS2</t>
-  </si>
-  <si>
     <t>AUTOMATIONSAMPLE1</t>
   </si>
   <si>
-    <t>test remarks -please ignore automation script inprogress</t>
-  </si>
-  <si>
     <t>rolesToEnable</t>
   </si>
   <si>
-    <t>TestCase27_ValidateRequestAccessFlows</t>
-  </si>
-  <si>
     <t>userToFindReqAccess</t>
   </si>
   <si>
-    <t>PLA-RECALL;PLA-REPORTING;PLA-USER</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN; PLA-RECALL;PLA-REPORTING;PLA-USER</t>
-  </si>
-  <si>
-    <t>TestCase27_ValidateUMWithPLAWebIntegrationWith4Rights</t>
-  </si>
-  <si>
-    <t>TestCase26_ValidateUMWithPLAWebIntegrationWith3RightsN</t>
-  </si>
-  <si>
-    <t>AUTOMATIONSAMPLE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automation script inprogress- Please Ignore. PLA-RECALL;PLA-REPORTING;PLA-USER Enabled </t>
-  </si>
-  <si>
-    <t>TestCase29_ValidateUMWithPLAWebIntegrationWith4RightsN</t>
-  </si>
-  <si>
-    <t>TestCase30_ValidateUMWithPLAWebIntegrationWith4Rights</t>
-  </si>
-  <si>
-    <t>TestCase28_ValidateUMWithPLAWebIntegrationWith4Rights2A</t>
-  </si>
-  <si>
-    <t>Automation script inprogress- Please Ignore.  RECALL;REPORTING;USER Enabled + ADMIN New Entry</t>
-  </si>
-  <si>
-    <t>Automation script inprogress- Please Ignore. PLA-ADMIN; PLA-RECALL;PLA-REPORTING;PLA-USER Enabled -reEntry</t>
-  </si>
-  <si>
-    <t>Automation script inprogress- Please Ignore. PLA-ADMIN; PLA-RECALL;PLA-REPORTING;PLA-USER Enabled -newEntry</t>
-  </si>
-  <si>
     <t>TestCase26_ValidateUMWithPLAWebIntegrationWith1RightN</t>
   </si>
   <si>
     <t>PLA-USER;PLA-RECALL</t>
   </si>
   <si>
-    <t>TestCase26_ValidateUMWithPLAWebIntegrationWith2Rights2A</t>
-  </si>
-  <si>
-    <t>Automation script inprogress- Please Ignore. PLA-USER;PLA-RECALL</t>
-  </si>
-  <si>
-    <t>Automation script inprogress- Please Ignore. PLA-RECALL;PLA-REPORTING;PLA-USER</t>
-  </si>
-  <si>
-    <t>TestCase28_ValidateApproveRequestFlowInManageRequesAccessPage</t>
-  </si>
-  <si>
-    <t>TestCase29_ValidateRejectedRequestFlowInManageRequesAccessPage</t>
-  </si>
-  <si>
     <t>ApprovalComments</t>
   </si>
   <si>
     <t>RejectComments</t>
   </si>
   <si>
-    <t>Rejecting to check the flow</t>
-  </si>
-  <si>
-    <t>NONCONFIGDATA</t>
-  </si>
-  <si>
-    <t>NONCONFIGD</t>
-  </si>
-  <si>
-    <t>needed req-already</t>
-  </si>
-  <si>
-    <t>TestCase29_ValidateRejectedRequestFlowInManageRequesAccessPageData</t>
-  </si>
-  <si>
-    <t>TestCase30_ValidateNonConfiguredRequestFlowInManageRequesAccessPageData</t>
-  </si>
-  <si>
-    <t>TestCase28_ValidateApproveRequestFlowInManageRequesAccessPageData</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN; PLA-RECALL;PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>TestCase31_ValidateNewUserRequestFlowInManageRequesAccessPageForApproval</t>
-  </si>
-  <si>
-    <t>TestCase30_ValidateNonConfiguredRequestFlowInManageRequesAccessPageForApproval</t>
-  </si>
-  <si>
     <t>nonConfigStatus</t>
   </si>
   <si>
-    <t>PLA-USER;PLA-ADMIN; PLA-RECALL;PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>SHRKRIS</t>
-  </si>
-  <si>
-    <t>TestCase32_ValidateNewUserRequestFlowInManageRequesAccessPageForRejection</t>
-  </si>
-  <si>
-    <t>TestCase32a_ValidateRejectRequestFlowInManageRequesAccessPage</t>
-  </si>
-  <si>
-    <t>Rejecting new user flow</t>
-  </si>
-  <si>
-    <t>TestCase33_ValidateNonAdminNewUserRequestUMApproveFlowInManageRequesAccess</t>
-  </si>
-  <si>
-    <t>nimpant- umadmin-of Data</t>
-  </si>
-  <si>
-    <t>TestCase34_ValidateNonAdminNewUserRequestUMRejectFlowInManageRequesAccess</t>
-  </si>
-  <si>
-    <t>Rejecting new user flow by umadmin. Pls rq again.</t>
-  </si>
-  <si>
-    <t>PLA-ADMIN;PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>TestCase28_ValidateSuperAdminRequestSuperAdminApproveFlowInManageRequesAccess</t>
-  </si>
-  <si>
-    <t>TestCase29_ValidateSuperAdminRequestSuperAdminRejectedFlowInManageRequesAccess</t>
-  </si>
-  <si>
     <t>2CCFORPLA</t>
   </si>
   <si>
     <t>DatabaseRequest</t>
   </si>
   <si>
-    <t>TestCase35a_ValidateSuperAdminRequestSuperAdminApproveFlowInManageDatabaseFlow</t>
-  </si>
-  <si>
     <t>TestCase35_ValidateSuperAdminRequestFlowInManageDatabaseAccessPageForApproval</t>
   </si>
   <si>
@@ -1118,54 +556,15 @@
     <t>FAHIBRA</t>
   </si>
   <si>
-    <t>TestCase31a_ValidateNewUserRequestSuperAdminApproveFlowInManageRequesAccessPage</t>
-  </si>
-  <si>
-    <t>same-No data setup</t>
-  </si>
-  <si>
-    <t>No data setup</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>TestCase4_ValidateFilterOptionInCostCenterScreenDb</t>
-  </si>
-  <si>
     <t>TestCase36_ValidateNewUserRequestFlowInManageDatabaseFlowForApproval</t>
   </si>
   <si>
-    <t>TestCase36a_ValidateNewUserRequestSuperAdminApproveFlowInManageDatabaseFlow</t>
-  </si>
-  <si>
     <t>MapRoles</t>
   </si>
   <si>
-    <t>TestCase37a_ValidateSuperAdminCCandDatabaseSingleRowRequestsApproval</t>
-  </si>
-  <si>
-    <t>TestCase37a_CCDATA_SuperAdminCCandDatabaseSingleRowRequestsApproval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase37_ValidateSuperAdminRequestCCandDatabaseSingleRowRequests </t>
-  </si>
-  <si>
-    <t>TestCase37a_DBDATA_SuperAdminCCandDatabaseSingleRowRequestsApproval</t>
-  </si>
-  <si>
-    <t>TestCase37_CCDATA_SuperAdminRequestCCandDatabaseSingleRowRequests</t>
-  </si>
-  <si>
     <t>TestCase37_DBDATA_SuperAdminRequestCCandDatabaseSingleRowRequests</t>
   </si>
   <si>
-    <t>PLA-USER;PLA-ADMIN;PLA-REPORTING</t>
-  </si>
-  <si>
-    <t>TestCase38a_ValidateNewUserRequestUMApproveFlowInManageDatabaseFlow</t>
-  </si>
-  <si>
     <t>TestCase38_ValidateNewUserRequestFlowInManageDatabaseFlowForApproval</t>
   </si>
   <si>
@@ -1175,24 +574,9 @@
     <t>TestCase39a_DBDATA_SuperAdminCCandDbMultiRowRequestsApproval</t>
   </si>
   <si>
-    <t>TestCase39_CCDATA_SuperAdminRequestCCandDbMultiRowRequests</t>
-  </si>
-  <si>
     <t>TestCase39a_CCDATA_SuperAdminCCandDbMultiRowRequestsApproval</t>
   </si>
   <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>5555</t>
-  </si>
-  <si>
     <t>R1111 DB</t>
   </si>
   <si>
@@ -1205,12 +589,6 @@
     <t>R5555 DB</t>
   </si>
   <si>
-    <t>PLA-USER</t>
-  </si>
-  <si>
-    <t>All 5 rows of cc &amp; db are requested- in automation flow</t>
-  </si>
-  <si>
     <t>automation Data-1</t>
   </si>
   <si>
@@ -1226,52 +604,34 @@
     <t>automation Data-5</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>PT/E</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>9U</t>
-  </si>
-  <si>
-    <t>SUBDEPTlineTwo</t>
-  </si>
-  <si>
-    <t>DEPTlineTwo</t>
-  </si>
-  <si>
-    <t>TESTSUBDEP</t>
-  </si>
-  <si>
-    <t>10429</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
     <t>AUTOMATIONDB2</t>
   </si>
   <si>
     <t>automation dummy db</t>
   </si>
   <si>
-    <t>AUTOMATIONSMPL3</t>
-  </si>
-  <si>
     <t>R3333DB</t>
   </si>
   <si>
     <t>TestCase001_ValidateDashboardPage</t>
+  </si>
+  <si>
+    <t>roshni</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ADMIN RIGHTS test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1478,7 +838,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1486,7 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2138,115 +1496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="26.08984375" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="A3:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,10 +1527,10 @@
         <v>54</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
@@ -2301,16 +1555,16 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="B2" s="22">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>346</v>
+      <c r="C2" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -2335,114 +1589,35 @@
       <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" t="s">
-        <v>224</v>
-      </c>
+      <c r="A3" s="26"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" t="s">
-        <v>256</v>
-      </c>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" t="s">
-        <v>257</v>
-      </c>
+      <c r="A5" s="26"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" t="s">
-        <v>258</v>
-      </c>
+      <c r="A6" s="26"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" t="s">
-        <v>259</v>
-      </c>
+      <c r="A7" s="26"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" t="s">
-        <v>225</v>
-      </c>
+      <c r="A8" s="26"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" t="s">
-        <v>226</v>
-      </c>
+      <c r="A9" s="26"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
+      <c r="A10" s="26"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
+      <c r="A11" s="26"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" t="s">
-        <v>224</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="C12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,12 +1625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2495,1140 +1670,272 @@
         <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="L1" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="M1" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="O1" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>215</v>
+        <v>155</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K3" t="s">
-        <v>317</v>
-      </c>
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" t="s">
-        <v>318</v>
-      </c>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" t="s">
-        <v>297</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" t="s">
-        <v>295</v>
-      </c>
-      <c r="J5" t="s">
-        <v>303</v>
-      </c>
-      <c r="K5" t="s">
-        <v>311</v>
-      </c>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I6" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K6" t="s">
-        <v>312</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I7" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K7" t="s">
-        <v>307</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J8" t="s">
-        <v>303</v>
-      </c>
-      <c r="K8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>312</v>
-      </c>
+      <c r="A8" s="22"/>
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" t="s">
-        <v>295</v>
-      </c>
-      <c r="J10" t="s">
-        <v>303</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" t="s">
-        <v>306</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" t="s">
-        <v>330</v>
-      </c>
-      <c r="I11" t="s">
-        <v>295</v>
-      </c>
-      <c r="J11" t="s">
-        <v>330</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E12" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="M13" s="34" t="b">
-        <v>0</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" t="s">
-        <v>257</v>
-      </c>
-      <c r="L14" t="s">
-        <v>323</v>
-      </c>
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D15" t="s">
-        <v>324</v>
-      </c>
-      <c r="E15" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="M16" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="M18" s="30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="M19" s="30" t="b">
-        <v>1</v>
-      </c>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+    </row>
+    <row r="16" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" t="s">
-        <v>330</v>
-      </c>
-      <c r="I20" t="s">
-        <v>335</v>
-      </c>
-      <c r="J20" t="s">
-        <v>330</v>
-      </c>
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" t="s">
-        <v>325</v>
-      </c>
-      <c r="H21" t="s">
-        <v>334</v>
-      </c>
-      <c r="I21" t="s">
-        <v>335</v>
-      </c>
-      <c r="J21" t="s">
-        <v>334</v>
-      </c>
-      <c r="L21" t="s">
-        <v>338</v>
-      </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>334</v>
-      </c>
-      <c r="I22" t="s">
-        <v>335</v>
-      </c>
-      <c r="J22" t="s">
-        <v>334</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>343</v>
-      </c>
-      <c r="I23" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23" t="s">
-        <v>343</v>
-      </c>
-      <c r="L23" t="s">
-        <v>342</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="F24" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="M24" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="M25" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30" t="b">
-        <v>0</v>
-      </c>
+      <c r="A26" s="29"/>
+      <c r="F26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30" t="b">
-        <v>0</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="F27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>368</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="F28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" t="s">
-        <v>226</v>
-      </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
+      <c r="B28" s="25"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>366</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="F29" t="s">
-        <v>402</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
+      <c r="B29" s="25"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s">
-        <v>404</v>
-      </c>
-      <c r="D30" t="s">
-        <v>404</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" t="s">
-        <v>330</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
+      <c r="B30" s="25"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" t="s">
-        <v>404</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>371</v>
-      </c>
-      <c r="F32" t="s">
-        <v>402</v>
-      </c>
-      <c r="H32" t="s">
-        <v>343</v>
-      </c>
-      <c r="I32" t="s">
-        <v>335</v>
-      </c>
-      <c r="J32" t="s">
-        <v>343</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
+      <c r="B31" s="25"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>370</v>
-      </c>
-      <c r="F33" t="s">
-        <v>402</v>
-      </c>
-      <c r="I33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J33" t="s">
-        <v>369</v>
-      </c>
-      <c r="M33" s="31" t="b">
-        <v>1</v>
-      </c>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>372</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="F34" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G34" t="s">
-        <v>385</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J34" t="s">
-        <v>226</v>
-      </c>
-      <c r="M34" t="b">
-        <v>0</v>
-      </c>
+      <c r="B34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>372</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="F35" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J35" t="s">
-        <v>384</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
-      </c>
+      <c r="B35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>372</v>
-      </c>
-      <c r="B36" s="26"/>
-      <c r="F36" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
+      <c r="B36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>372</v>
-      </c>
-      <c r="B37" s="26"/>
-      <c r="F37" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J37" t="s">
-        <v>257</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
+      <c r="B37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>372</v>
-      </c>
-      <c r="B38" s="26"/>
-      <c r="F38" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J38" t="s">
-        <v>334</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
+      <c r="B38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>374</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J39" t="s">
-        <v>226</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>374</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J40" t="s">
-        <v>384</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>374</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J41" t="s">
-        <v>353</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>374</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J42" t="s">
-        <v>257</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>374</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="I43" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J43" t="s">
-        <v>334</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>373</v>
-      </c>
-      <c r="B46" s="26"/>
-      <c r="I46" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>353</v>
+        <v>173</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="I46" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
@@ -3636,14 +1943,14 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>373</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="I47" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J47" s="37" t="s">
-        <v>353</v>
+        <v>173</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="I47" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
@@ -3651,14 +1958,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="I48" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J48" s="37" t="s">
-        <v>353</v>
+        <v>173</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="I48" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -3666,14 +1973,14 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>373</v>
-      </c>
-      <c r="B49" s="26"/>
-      <c r="I49" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J49" s="37" t="s">
-        <v>353</v>
+        <v>173</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="I49" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -3681,14 +1988,14 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>373</v>
-      </c>
-      <c r="B50" s="26"/>
-      <c r="I50" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>353</v>
+        <v>173</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="I50" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -3696,14 +2003,14 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>375</v>
-      </c>
-      <c r="B51" s="26"/>
-      <c r="I51" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J51" s="37" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="I51" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -3711,14 +2018,14 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>375</v>
-      </c>
-      <c r="B52" s="26"/>
-      <c r="I52" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="I52" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J52" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -3726,14 +2033,14 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>375</v>
-      </c>
-      <c r="B53" s="26"/>
-      <c r="I53" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J53" s="37" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="I53" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -3741,14 +2048,14 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>375</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="I54" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J54" s="37" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="I54" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -3756,14 +2063,14 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>375</v>
-      </c>
-      <c r="B55" s="26"/>
-      <c r="I55" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>353</v>
+        <v>174</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="I55" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -4207,7 +2514,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4234,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>406</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4247,309 +2554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6328125" customWidth="1"/>
-    <col min="4" max="4" width="27.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4568,69 +2577,27 @@
         <v>53</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4639,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z35"/>
   <sheetViews>
@@ -4668,34 +2635,34 @@
         <v>53</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
@@ -4714,73 +2681,73 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>176</v>
+        <v>100</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>177</v>
+        <v>101</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>178</v>
+        <v>102</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4789,10 +2756,10 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="I8" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>156</v>
+        <v>62</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -4812,7 +2779,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -4824,7 +2791,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -4844,7 +2811,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -4853,10 +2820,10 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="I10" s="22" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -4876,7 +2843,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -4885,10 +2852,10 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="I11" s="22" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -4908,7 +2875,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -4919,8 +2886,8 @@
       <c r="I12" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>157</v>
+      <c r="J12" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -4939,36 +2906,36 @@
       <c r="Y12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>191</v>
+      <c r="A13" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>292</v>
+      <c r="C14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -4988,239 +2955,239 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>220</v>
+        <v>128</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>229</v>
+      <c r="A18" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
-        <v>230</v>
+      <c r="A19" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
-        <v>231</v>
+      <c r="A20" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>232</v>
+      <c r="A21" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>233</v>
+      <c r="A22" s="26" t="s">
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>234</v>
+      <c r="A23" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="27" t="s">
-        <v>235</v>
+      <c r="A24" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>236</v>
+      <c r="A25" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
-        <v>237</v>
+      <c r="A26" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>349</v>
+      <c r="A27" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>360</v>
+      <c r="A28" s="26" t="s">
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>368</v>
+      <c r="A29" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>371</v>
+      <c r="A30" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>380</v>
+        <v>172</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>381</v>
+        <v>172</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>405</v>
+        <v>172</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>388</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>372</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>382</v>
+        <v>172</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>383</v>
+        <v>172</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>390</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5229,12 +3196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5260,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -5271,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -5282,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -5293,10 +3260,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5305,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
@@ -5348,22 +3315,22 @@
         <v>57</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
@@ -5377,73 +3344,73 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5454,10 +3421,10 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="J5" s="23" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5466,12 +3433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5510,22 +3477,22 @@
         <v>57</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>217</v>
+        <v>131</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>352</v>
+        <v>165</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
@@ -5543,25 +3510,25 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="B2" s="22">
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="F2" s="22">
         <v>1040</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -5583,20 +3550,11 @@
       <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="22">
-        <v>100</v>
-      </c>
+      <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -5618,27 +3576,12 @@
       <c r="Y3" s="22"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="22">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="22">
-        <v>659</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -5659,27 +3602,12 @@
       <c r="Y4" s="22"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="22">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="22">
-        <v>659</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -5700,27 +3628,12 @@
       <c r="Y5" s="22"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="22">
-        <v>0</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="22">
-        <v>659</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -5741,27 +3654,13 @@
       <c r="Y6" s="22"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="22">
-        <v>659</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -5782,27 +3681,13 @@
       <c r="Y7" s="22"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1400</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -5823,27 +3708,13 @@
       <c r="Y8" s="22"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="22">
-        <v>0</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="22">
-        <v>1400</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -5864,15 +3735,9 @@
       <c r="Y9" s="22"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="22">
-        <v>0</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -5897,27 +3762,13 @@
       <c r="Y10" s="22"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -5938,24 +3789,12 @@
       <c r="Y11" s="22"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1140</v>
-      </c>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -5977,24 +3816,16 @@
       <c r="Y12" s="22"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="22">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>148</v>
-      </c>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>202</v>
-      </c>
+      <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -6012,27 +3843,12 @@
       <c r="Y13" s="22"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>278</v>
-      </c>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -6053,27 +3869,13 @@
       <c r="Y14" s="22"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1042</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>279</v>
-      </c>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -6094,21 +3896,15 @@
       <c r="Y15" s="22"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>359</v>
-      </c>
+      <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>358</v>
-      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -6127,21 +3923,15 @@
       <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>159</v>
-      </c>
+      <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>156</v>
-      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -6160,21 +3950,15 @@
       <c r="Y17" s="22"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>160</v>
-      </c>
+      <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -6193,21 +3977,15 @@
       <c r="Y18" s="22"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>161</v>
-      </c>
+      <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -6226,21 +4004,15 @@
       <c r="Y19" s="22"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
-        <v>162</v>
-      </c>
+      <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>153</v>
-      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -6259,21 +4031,15 @@
       <c r="Y20" s="22"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
-        <v>163</v>
-      </c>
+      <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>157</v>
-      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -6292,21 +4058,15 @@
       <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>184</v>
-      </c>
+      <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>154</v>
-      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -6325,21 +4085,15 @@
       <c r="Y22" s="22"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
-        <v>185</v>
-      </c>
+      <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>155</v>
-      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -6358,25 +4112,13 @@
       <c r="Y23" s="22"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
-        <v>211</v>
-      </c>
+      <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>280</v>
-      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -6397,29 +4139,15 @@
       <c r="Y24" s="22"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>195</v>
-      </c>
+      <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>393</v>
-      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>394</v>
-      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -6438,28 +4166,13 @@
       <c r="Y25" s="22"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="22" t="s">
-        <v>196</v>
-      </c>
+      <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>395</v>
-      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -6478,59 +4191,22 @@
       <c r="Y26" s="22"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="J27" t="s">
-        <v>209</v>
-      </c>
+      <c r="A27" s="26"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" t="s">
-        <v>209</v>
-      </c>
+      <c r="A28" s="26"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
-        <v>293</v>
-      </c>
+      <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>278</v>
-      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -6551,25 +4227,13 @@
       <c r="Y29" s="22"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
-        <v>191</v>
-      </c>
+      <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>281</v>
-      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -6590,25 +4254,13 @@
       <c r="Y30" s="22"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="A31" s="22"/>
       <c r="B31" s="22"/>
-      <c r="C31" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>282</v>
-      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -6629,25 +4281,13 @@
       <c r="Y31" s="22"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>221</v>
-      </c>
+      <c r="A32" s="22"/>
       <c r="B32" s="22"/>
-      <c r="C32" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -6668,25 +4308,12 @@
       <c r="Y32" s="22"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
-        <v>229</v>
-      </c>
+      <c r="A33" s="26"/>
       <c r="B33" s="22"/>
-      <c r="C33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>278</v>
-      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -6707,25 +4334,12 @@
       <c r="Y33" s="22"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="A34" s="26"/>
       <c r="B34" s="22"/>
-      <c r="C34" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>284</v>
-      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -6746,25 +4360,12 @@
       <c r="Y34" s="22"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="A35" s="26"/>
       <c r="B35" s="22"/>
-      <c r="C35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -6785,25 +4386,12 @@
       <c r="Y35" s="22"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
-        <v>232</v>
-      </c>
+      <c r="A36" s="26"/>
       <c r="B36" s="22"/>
-      <c r="C36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>286</v>
-      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -6824,111 +4412,110 @@
       <c r="Y36" s="22"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>287</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>288</v>
-      </c>
+      <c r="A38" s="26"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>289</v>
-      </c>
+      <c r="A39" s="26"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>290</v>
-      </c>
+      <c r="A40" s="26"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>291</v>
-      </c>
+      <c r="A41" s="26"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="L42" t="s">
-        <v>350</v>
+      <c r="A42" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
